--- a/pop_rate_1950_2060.xlsx
+++ b/pop_rate_1950_2060.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="14535" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="pop_rate_1960_2060" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>未成年(0-19)</t>
     <rPh sb="0" eb="3">
@@ -47,9 +47,6 @@
       <t>コウレイシャ</t>
     </rPh>
     <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>総務省統計局『国勢調査報告』、国立社会保障・人口問題研究所『日本の将来推計人口(平成24年1月推計)より</t>
   </si>
 </sst>
 </file>
@@ -747,7 +744,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.7104671276820987E-2"/>
+          <c:y val="9.3261652976557599E-2"/>
+          <c:w val="0.91057163516660877"/>
+          <c:h val="0.6530405162927071"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1185,11 +1192,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79140736"/>
-        <c:axId val="79142272"/>
+        <c:axId val="80934784"/>
+        <c:axId val="80936320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79140736"/>
+        <c:axId val="80934784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1199,7 +1206,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79142272"/>
+        <c:crossAx val="80936320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1207,7 +1214,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79142272"/>
+        <c:axId val="80936320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1223,14 +1230,23 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="79140736"/>
+        <c:crossAx val="80934784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14884023058761489"/>
+          <c:y val="0.85090980733624777"/>
+          <c:w val="0.72667265906830136"/>
+          <c:h val="4.7229282471841209E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1242,6 +1258,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -1249,87 +1266,219 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>211455</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>216027</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="グループ化 3"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6193155" y="1876425"/>
-          <a:ext cx="4572" cy="3390900"/>
+          <a:off x="2628900" y="995361"/>
+          <a:ext cx="6257925" cy="4862513"/>
+          <a:chOff x="5105400" y="1319211"/>
+          <a:chExt cx="6257925" cy="4862513"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="2" name="グラフ 1"/>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="5105400" y="1319211"/>
+          <a:ext cx="6257925" cy="4862513"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8955404" y="1762125"/>
+            <a:ext cx="4572" cy="3181350"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.05426</cdr:x>
+      <cdr:y>0.92948</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96499</cdr:x>
+      <cdr:y>0.99126</cdr:y>
+    </cdr:to>
+    <cdr:grpSp>
+      <cdr:nvGrpSpPr>
+        <cdr:cNvPr id="4" name="グループ化 3"/>
+        <cdr:cNvGrpSpPr/>
+      </cdr:nvGrpSpPr>
+      <cdr:grpSpPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="339555" y="4519609"/>
+          <a:ext cx="5699280" cy="300406"/>
+          <a:chOff x="339555" y="4519609"/>
+          <a:chExt cx="5699280" cy="300406"/>
+        </a:xfrm>
+      </cdr:grpSpPr>
+      <cdr:sp macro="" textlink="">
+        <cdr:nvSpPr>
+          <cdr:cNvPr id="2" name="テキスト ボックス 1"/>
+          <cdr:cNvSpPr txBox="1"/>
+        </cdr:nvSpPr>
+        <cdr:spPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:off x="339555" y="4639324"/>
+            <a:ext cx="1736699" cy="180691"/>
+          </a:xfrm>
+          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </cdr:spPr>
+        <cdr:txBody>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </cdr:txBody>
+      </cdr:sp>
+      <cdr:sp macro="" textlink="">
+        <cdr:nvSpPr>
+          <cdr:cNvPr id="3" name="テキスト ボックス 2"/>
+          <cdr:cNvSpPr txBox="1"/>
+        </cdr:nvSpPr>
+        <cdr:spPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:off x="457204" y="4519609"/>
+            <a:ext cx="5581631" cy="276239"/>
+          </a:xfrm>
+          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </cdr:spPr>
+        <cdr:txBody>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900"/>
+              <a:t>総務省統計局</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>『</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900"/>
+              <a:t>国勢調査報告</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>』</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900"/>
+              <a:t>、国立社会保障・人口問題研究所</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>『</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900"/>
+              <a:t>日本の将来推計人口</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900"/>
+              <a:t>平成</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>24</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900"/>
+              <a:t>年</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900"/>
+              <a:t>月推計</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="900"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900"/>
+              <a:t>より</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900"/>
+          </a:p>
+        </cdr:txBody>
+      </cdr:sp>
+    </cdr:grpSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1619,9 +1768,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1867,15 +2016,10 @@
         <v>0.26595295277119602</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D35" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="72" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
